--- a/medicine/Enfance/Langelot_et_les_Espions/Langelot_et_les_Espions.xlsx
+++ b/medicine/Enfance/Langelot_et_les_Espions/Langelot_et_les_Espions.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Langelot et les Espions est le deuxième roman de la série Langelot, écrite par le Lieutenant X. Ce roman a été édité pour la première fois en 1966, dans la Bibliothèque verte, sous le numéro 293 de cette collection.
@@ -512,7 +524,9 @@
           <t>Principaux personnages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Langelot (alias « Jean-Pierre Brisquet », alias « Mercure ») : orphelin, sous-lieutenant, agent inexpérimenté (c'est sa première mission) du Service national d'information fonctionnelle (SNIF), blond, 1,68 m, mince.
 Hedwige Roche-Verger (alias « Choupette », alias « le Satellite ») : fille du professeur Roche-Verger, blonde, seize ans, orpheline de mère.
@@ -553,7 +567,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Choupette est une jeune fille presque comme les autres : elle est la fille du professeur Roche-Verger, le spécialiste français des fusées - que l'on surnomme Monsieur Propergol, par allusion au carburant de ces engins. Il travaille pour le Centre national d'études sur les fusées balistiques et cosmiques.
 C'est la semaine du 11 novembre, le week-end approche, il pleut ; elle s'ennuie ferme. Soudain, un jeune inconnu se laisse tomber sur son balcon et frappe à sa fenêtre. Il se présente comme étant Langelot, un agent secret du Service National d'Information Fonctionnelle. Il lui annonce qu'il est venu l'enlever elle et son père, afin de les cacher jusqu'au décollage de la fusée Rosalie. En effet, les services secrets anglais et italiens ont projeté le même plan, afin de s'emparer d'une formule secrète que connaît le professeur Roche-Verger. La France a vendu cette formule, une fois la fusée lancée : enlever le Professeur éviter de payer pour ce secret scientifique.
@@ -588,7 +604,9 @@
           <t>Les différentes éditions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1966 - Hachette, Bibliothèque verte (français, version originale). Illustré par Maurice Paulin.
 1967 - Hachette, Bibliothèque verte. Illustré par Maurice Paulin.
@@ -629,19 +647,21 @@
           <t>Autour du roman</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Dans ce roman, le héros Langelot rencontre pour la première fois Hedwige Roche-Verger, alias Choupette, la fille du professeur Roche-Verger, laquelle deviendra l'une de ses très rares amies. Avec le professeur Roche-Verger (alias Monsieur Propergol) ils reviendront dans plusieurs des romans suivants.
 Langelot et Choupette se vouvoient dans la première partie du roman, puis se tutoient au moment de soigner ensemble la blessure par balles du lieutenant Charles.
 Les Roche-Verger habitent au quatrième étage d'un immeuble résidentiel à Châtillon-sous-Bagneux, aujourd'hui Châtillon.
-Le Professeur Jacques Blamont pionnier des fusées françaises[1],[2], a vécu à Châtillon, où il est mort en 2020.
+Le Professeur Jacques Blamont pionnier des fusées françaises a vécu à Châtillon, où il est mort en 2020.
 C'est la première apparition du commissaire Didier de la Direction de la Surveillance du territoire (DST), personnage également récurrent de romans suivants.
 Le "Centre national d'études sur les fusées balistiques et cosmiques", situé à une cinquantaine de kilomètres de Paris, n'a pas existé. Le Laboratoire de recherches balistiques et aérodynamiques (LRBA) a été initialement chargé de mettre au point les premiers engins aboutissant à la fusée-sonde Véronique. Puis, la Société d'étude et de réalisation d'engins balistiques (SEREB) lui a succédé, jusqu'à la création du Centre national d'études spatiales, entre 1961 et 1965 et de l'Agence spatiale européenne, bien plus tard, en 1975.
 Le siège du LRBA était à Vernon, à environ soixante-dix kilomètres de Paris. Celui de la SEREB était à Saint-Aubin-de-Médoc, en Gironde.
 Créé le 17 mai 1946 le LRBA de Vernon rassemble à l'origine 150 spécialistes allemands du missile balistique V2 recrutés par l'armée française, notamment pour développer les moteurs des fusées.
-La fusée Véronique (premiers vols à Vernon) [3] a volé de 1952 à 1967[4], notamment le 24 mars 1966, avec son extension Vesta. Dans le roman, le Professeur Roche-Verger déclare avoir été à la pêche, le jour du lancement de Véronique[5]. Aucune fusée Rosalie n'a été lancée.
+La fusée Véronique (premiers vols à Vernon)  a volé de 1952 à 1967, notamment le 24 mars 1966, avec son extension Vesta. Dans le roman, le Professeur Roche-Verger déclare avoir été à la pêche, le jour du lancement de Véronique. Aucune fusée Rosalie n'a été lancée.
 Les fusées Véronique sont lancées du centre d'Hammaguir, dans le Sahara jusqu'en juillet 1967, puis de celui de Kourou ensuite.
-Débuté en 1959, le programme français de fusées dit "Pierres précieuses" débouchera sur les fusées Diamant (1965), Émeraude, Saphir et Topaze[6].
+Débuté en 1959, le programme français de fusées dit "Pierres précieuses" débouchera sur les fusées Diamant (1965), Émeraude, Saphir et Topaze.
 Langelot est notamment confronté (plutôt violemment) aux services secrets italiens et anglais.
 Langelot taquine Choupette à propos de la revue Science et Vie à laquelle son père l'a abonnée.
 Le professeur Roche-Verger se vante d'avoir glissé une grenouille dans la poche de Wernher von Braun, qui n'aurait pas partagé son sens de l'humour, expliquant ainsi la raison pour laquelle il a refusé de travailler pour les Américains.
